--- a/medicine/Psychotrope/Floreffe_(bière)/Floreffe_(bière).xlsx
+++ b/medicine/Psychotrope/Floreffe_(bière)/Floreffe_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Floreffe_(bi%C3%A8re)</t>
+          <t>Floreffe_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Floreffe est une bière d'abbaye[1] belge brassée par la brasserie Lefebvre à Quenast dans la commune belge de Rebecq située en Région wallonne dans la province du Brabant wallon[2], et par la Brasserie Licorne à Saverne dans le Bas-Rhin en Alsace.
+La Floreffe est une bière d'abbaye belge brassée par la brasserie Lefebvre à Quenast dans la commune belge de Rebecq située en Région wallonne dans la province du Brabant wallon, et par la Brasserie Licorne à Saverne dans le Bas-Rhin en Alsace.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Floreffe_(bi%C3%A8re)</t>
+          <t>Floreffe_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Abbaye de Floreffe a confié en 1983 à la brasserie familiale Lefebvre la licence de brassage de ses bières spéciales[3]. La gamme à cette époque comprenait trois bières : la brune, la triple et la Prima Melior[4]. Ces bières portent aujourd'hui le logo des bières belges d'abbaye reconnues[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Abbaye de Floreffe a confié en 1983 à la brasserie familiale Lefebvre la licence de brassage de ses bières spéciales. La gamme à cette époque comprenait trois bières : la brune, la triple et la Prima Melior. Ces bières portent aujourd'hui le logo des bières belges d'abbaye reconnues. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Floreffe_(bi%C3%A8re)</t>
+          <t>Floreffe_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgique
-Actuellement, cinq bières sont brassées et commercialisées en bouteilles de 33 cl capsulées ou, depuis peu, avec fermeture à bouchon mécanique[5],[3].
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Actuellement, cinq bières sont brassées et commercialisées en bouteilles de 33 cl capsulées ou, depuis peu, avec fermeture à bouchon mécanique,.
 Floreffe Blonde, dorée et légère titrant 6,5 % d'alcool (étiquette verte)
 Floreffe Double, brune légère à la robe foncée et aux reflets rouges titrant 6,5 % d'alcool (étiquette rouge)
 Floreffe Triple, blonde-ambrée titrant 8 % d'alcool (étiquette jaune)
 Floreffe Prima Melior, noire à la mousse brune titrant 8 % d'alcool (étiquette bleue) qui a obtenu deux médailles d'argent (en 2012) et d'or (en 2013) à l'Australian International Beer Awards dans la catégorie Belgian &amp; French Style Ale - Abbey Dubbel
-Floreffe Blanche, bière blanche titrant 4,5 % d'alcool
-France
-Floreffe Abbaye (6,2%), Floreffe Blanche (4,5%)
+Floreffe Blanche, bière blanche titrant 4,5 % d'alcool</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Floreffe_(bière)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Floreffe_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floreffe Abbaye (6,2%), Floreffe Blanche (4,5%)
 </t>
         </is>
       </c>
